--- a/Results/Commit Percentage.xlsx
+++ b/Results/Commit Percentage.xlsx
@@ -406,90 +406,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
